--- a/upload/excel_export_ci.xlsx
+++ b/upload/excel_export_ci.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Sr No.</t>
   </si>
@@ -27,6 +27,33 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>hbjn</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>jnmk</t>
+  </si>
+  <si>
+    <t>test5@gmail.com</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>kmnj</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
   </si>
   <si>
     <t>test</t>
@@ -415,7 +442,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1:D1"/>
@@ -499,6 +526,48 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
